--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - Gross national income quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - Gross national income quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="56">
   <si>
     <t>National accounts - Gross national income, national income:
 Germany, quarters, original and adjusted data</t>
@@ -144,9 +144,6 @@
     <t>EUR bn</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Consumption of fixed capital</t>
   </si>
   <si>
@@ -183,7 +180,7 @@
     <t>paid by general government.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:48:14</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:17:32</t>
   </si>
 </sst>
 </file>
@@ -3809,21 +3806,21 @@
         <v>911.128</v>
       </c>
       <c r="DS7" t="n" s="10">
-        <v>875.5</v>
+        <v>877.09</v>
       </c>
       <c r="DT7" t="n" s="10">
-        <v>877.095</v>
+        <v>879.924</v>
       </c>
       <c r="DU7" t="n" s="10">
-        <v>942.615</v>
-      </c>
-      <c r="DV7" t="s" s="10">
-        <v>43</v>
+        <v>944.31</v>
+      </c>
+      <c r="DV7" t="n" s="10">
+        <v>977.198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="13">
         <v>42</v>
@@ -4189,21 +4186,21 @@
         <v>164.662</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>168.115</v>
+        <v>168.222</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>171.345</v>
+        <v>171.482</v>
       </c>
       <c r="DU8" t="n" s="10">
-        <v>176.084</v>
-      </c>
-      <c r="DV8" t="s" s="10">
-        <v>43</v>
+        <v>176.29</v>
+      </c>
+      <c r="DV8" t="n" s="10">
+        <v>178.044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="13">
         <v>42</v>
@@ -4569,21 +4566,21 @@
         <v>746.466</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>707.385</v>
+        <v>708.868</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>705.75</v>
+        <v>708.442</v>
       </c>
       <c r="DU9" t="n" s="10">
-        <v>766.531</v>
-      </c>
-      <c r="DV9" t="s" s="10">
-        <v>43</v>
+        <v>768.02</v>
+      </c>
+      <c r="DV9" t="n" s="10">
+        <v>799.154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="13">
         <v>42</v>
@@ -4949,21 +4946,21 @@
         <v>66.808</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>63.069</v>
+        <v>64.551</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>67.497</v>
+        <v>68.992</v>
       </c>
       <c r="DU10" t="n" s="10">
-        <v>79.898</v>
-      </c>
-      <c r="DV10" t="s" s="10">
-        <v>43</v>
+        <v>80.503</v>
+      </c>
+      <c r="DV10" t="n" s="10">
+        <v>72.665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="13">
         <v>42</v>
@@ -5329,21 +5326,21 @@
         <v>679.658</v>
       </c>
       <c r="DS11" t="n" s="10">
-        <v>644.316</v>
+        <v>644.317</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>638.253</v>
+        <v>639.45</v>
       </c>
       <c r="DU11" t="n" s="10">
-        <v>686.633</v>
-      </c>
-      <c r="DV11" t="s" s="10">
-        <v>43</v>
+        <v>687.517</v>
+      </c>
+      <c r="DV11" t="n" s="10">
+        <v>726.489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="13">
         <v>42</v>
@@ -5709,21 +5706,21 @@
         <v>170.59</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>199.07</v>
+        <v>199.042</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>175.202</v>
+        <v>176.267</v>
       </c>
       <c r="DU12" t="n" s="10">
-        <v>210.022</v>
-      </c>
-      <c r="DV12" t="s" s="10">
-        <v>43</v>
+        <v>208.404</v>
+      </c>
+      <c r="DV12" t="n" s="10">
+        <v>193.647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="13">
         <v>42</v>
@@ -6089,21 +6086,21 @@
         <v>509.068</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>445.246</v>
+        <v>445.275</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>463.051</v>
+        <v>463.183</v>
       </c>
       <c r="DU13" t="n" s="10">
-        <v>476.611</v>
-      </c>
-      <c r="DV13" t="s" s="10">
-        <v>43</v>
+        <v>479.113</v>
+      </c>
+      <c r="DV13" t="n" s="10">
+        <v>532.842</v>
       </c>
     </row>
     <row r="14" ht="33.75" customHeight="true">
       <c r="A14" t="s" s="14">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -6474,21 +6471,21 @@
         <v>887.311</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>882.679</v>
+        <v>884.033</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>900.138</v>
+        <v>902.822</v>
       </c>
       <c r="DU15" t="n" s="10">
-        <v>938.59</v>
-      </c>
-      <c r="DV15" t="s" s="10">
-        <v>43</v>
+        <v>940.115</v>
+      </c>
+      <c r="DV15" t="n" s="10">
+        <v>951.552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s" s="13">
         <v>42</v>
@@ -6854,21 +6851,21 @@
         <v>165.249</v>
       </c>
       <c r="DS16" t="n" s="10">
-        <v>167.584</v>
+        <v>167.696</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>171.187</v>
+        <v>171.329</v>
       </c>
       <c r="DU16" t="n" s="10">
-        <v>176.15</v>
-      </c>
-      <c r="DV16" t="s" s="10">
-        <v>43</v>
+        <v>176.361</v>
+      </c>
+      <c r="DV16" t="n" s="10">
+        <v>178.653</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s" s="13">
         <v>42</v>
@@ -7234,21 +7231,21 @@
         <v>722.062</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>715.095</v>
+        <v>716.337</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>728.951</v>
+        <v>731.493</v>
       </c>
       <c r="DU17" t="n" s="10">
-        <v>762.44</v>
-      </c>
-      <c r="DV17" t="s" s="10">
-        <v>43</v>
+        <v>763.754</v>
+      </c>
+      <c r="DV17" t="n" s="10">
+        <v>772.899</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="13">
         <v>42</v>
@@ -7614,21 +7611,21 @@
         <v>69.903</v>
       </c>
       <c r="DS18" t="n" s="10">
-        <v>61.484</v>
+        <v>62.947</v>
       </c>
       <c r="DT18" t="n" s="10">
-        <v>65.068</v>
+        <v>66.591</v>
       </c>
       <c r="DU18" t="n" s="10">
-        <v>80.034</v>
-      </c>
-      <c r="DV18" t="s" s="10">
-        <v>43</v>
+        <v>80.702</v>
+      </c>
+      <c r="DV18" t="n" s="10">
+        <v>76.47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="13">
         <v>42</v>
@@ -7994,781 +7991,781 @@
         <v>652.159</v>
       </c>
       <c r="DS19" t="n" s="10">
-        <v>653.611</v>
+        <v>653.39</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>663.883</v>
+        <v>664.902</v>
       </c>
       <c r="DU19" t="n" s="10">
-        <v>682.406</v>
-      </c>
-      <c r="DV19" t="s" s="10">
-        <v>43</v>
+        <v>683.052</v>
+      </c>
+      <c r="DV19" t="n" s="10">
+        <v>696.429</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s" s="13">
         <v>42</v>
       </c>
       <c r="C20" t="n" s="10">
-        <v>95.402</v>
+        <v>95.363</v>
       </c>
       <c r="D20" t="n" s="10">
-        <v>92.774</v>
+        <v>92.825</v>
       </c>
       <c r="E20" t="n" s="10">
-        <v>92.705</v>
+        <v>92.722</v>
       </c>
       <c r="F20" t="n" s="10">
-        <v>95.225</v>
+        <v>95.195</v>
       </c>
       <c r="G20" t="n" s="10">
-        <v>100.444</v>
+        <v>100.409</v>
       </c>
       <c r="H20" t="n" s="10">
-        <v>96.415</v>
+        <v>96.462</v>
       </c>
       <c r="I20" t="n" s="10">
-        <v>93.121</v>
+        <v>93.137</v>
       </c>
       <c r="J20" t="n" s="10">
-        <v>94.512</v>
+        <v>94.483</v>
       </c>
       <c r="K20" t="n" s="10">
-        <v>93.581</v>
+        <v>93.551</v>
       </c>
       <c r="L20" t="n" s="10">
-        <v>96.067</v>
+        <v>96.113</v>
       </c>
       <c r="M20" t="n" s="10">
-        <v>94.901</v>
+        <v>94.909</v>
       </c>
       <c r="N20" t="n" s="10">
-        <v>94.035</v>
+        <v>94.013</v>
       </c>
       <c r="O20" t="n" s="10">
-        <v>94.732</v>
+        <v>94.711</v>
       </c>
       <c r="P20" t="n" s="10">
-        <v>99.315</v>
+        <v>99.353</v>
       </c>
       <c r="Q20" t="n" s="10">
-        <v>101.715</v>
+        <v>101.713</v>
       </c>
       <c r="R20" t="n" s="10">
-        <v>103.106</v>
+        <v>103.09</v>
       </c>
       <c r="S20" t="n" s="10">
-        <v>103.26</v>
+        <v>103.249</v>
       </c>
       <c r="T20" t="n" s="10">
-        <v>104.139</v>
+        <v>104.166</v>
       </c>
       <c r="U20" t="n" s="10">
-        <v>103.203</v>
+        <v>103.198</v>
       </c>
       <c r="V20" t="n" s="10">
-        <v>103.666</v>
+        <v>103.656</v>
       </c>
       <c r="W20" t="n" s="10">
-        <v>101.914</v>
+        <v>101.91</v>
       </c>
       <c r="X20" t="n" s="10">
-        <v>106.901</v>
+        <v>106.914</v>
       </c>
       <c r="Y20" t="n" s="10">
-        <v>106.094</v>
+        <v>106.092</v>
       </c>
       <c r="Z20" t="n" s="10">
-        <v>109.965</v>
+        <v>109.958</v>
       </c>
       <c r="AA20" t="n" s="10">
-        <v>98.597</v>
+        <v>98.596</v>
       </c>
       <c r="AB20" t="n" s="10">
-        <v>114.029</v>
+        <v>114.035</v>
       </c>
       <c r="AC20" t="n" s="10">
-        <v>115.287</v>
+        <v>115.289</v>
       </c>
       <c r="AD20" t="n" s="10">
-        <v>115.015</v>
+        <v>115.008</v>
       </c>
       <c r="AE20" t="n" s="10">
-        <v>114.681</v>
+        <v>114.682</v>
       </c>
       <c r="AF20" t="n" s="10">
-        <v>110.126</v>
+        <v>110.127</v>
       </c>
       <c r="AG20" t="n" s="10">
-        <v>115.028</v>
+        <v>115.031</v>
       </c>
       <c r="AH20" t="n" s="10">
-        <v>112.567</v>
+        <v>112.561</v>
       </c>
       <c r="AI20" t="n" s="10">
-        <v>109.417</v>
+        <v>109.42</v>
       </c>
       <c r="AJ20" t="n" s="10">
         <v>110.979</v>
       </c>
       <c r="AK20" t="n" s="10">
-        <v>110.896</v>
+        <v>110.899</v>
       </c>
       <c r="AL20" t="n" s="10">
-        <v>109.692</v>
+        <v>109.687</v>
       </c>
       <c r="AM20" t="n" s="10">
-        <v>113.347</v>
+        <v>113.351</v>
       </c>
       <c r="AN20" t="n" s="10">
-        <v>107.165</v>
+        <v>107.164</v>
       </c>
       <c r="AO20" t="n" s="10">
-        <v>104.455</v>
+        <v>104.459</v>
       </c>
       <c r="AP20" t="n" s="10">
-        <v>104.859</v>
+        <v>104.853</v>
       </c>
       <c r="AQ20" t="n" s="10">
-        <v>115.25</v>
+        <v>115.254</v>
       </c>
       <c r="AR20" t="n" s="10">
-        <v>111.395</v>
+        <v>111.393</v>
       </c>
       <c r="AS20" t="n" s="10">
-        <v>113.902</v>
+        <v>113.907</v>
       </c>
       <c r="AT20" t="n" s="10">
-        <v>114.91</v>
+        <v>114.901</v>
       </c>
       <c r="AU20" t="n" s="10">
-        <v>109.957</v>
+        <v>109.962</v>
       </c>
       <c r="AV20" t="n" s="10">
-        <v>114.115</v>
+        <v>114.113</v>
       </c>
       <c r="AW20" t="n" s="10">
-        <v>117.849</v>
+        <v>117.853</v>
       </c>
       <c r="AX20" t="n" s="10">
-        <v>112.685</v>
+        <v>112.678</v>
       </c>
       <c r="AY20" t="n" s="10">
-        <v>109.539</v>
+        <v>109.542</v>
       </c>
       <c r="AZ20" t="n" s="10">
         <v>110.583</v>
       </c>
       <c r="BA20" t="n" s="10">
-        <v>119.118</v>
+        <v>119.12</v>
       </c>
       <c r="BB20" t="n" s="10">
-        <v>114.924</v>
+        <v>114.919</v>
       </c>
       <c r="BC20" t="n" s="10">
-        <v>126.8</v>
+        <v>126.803</v>
       </c>
       <c r="BD20" t="n" s="10">
-        <v>137.828</v>
+        <v>137.827</v>
       </c>
       <c r="BE20" t="n" s="10">
-        <v>134.144</v>
+        <v>134.145</v>
       </c>
       <c r="BF20" t="n" s="10">
-        <v>132.041</v>
+        <v>132.037</v>
       </c>
       <c r="BG20" t="n" s="10">
-        <v>129.746</v>
+        <v>129.748</v>
       </c>
       <c r="BH20" t="n" s="10">
-        <v>144.312</v>
+        <v>144.313</v>
       </c>
       <c r="BI20" t="n" s="10">
-        <v>138.561</v>
+        <v>138.559</v>
       </c>
       <c r="BJ20" t="n" s="10">
-        <v>140.257</v>
+        <v>140.256</v>
       </c>
       <c r="BK20" t="n" s="10">
-        <v>153.021</v>
+        <v>153.024</v>
       </c>
       <c r="BL20" t="n" s="10">
-        <v>158.613</v>
+        <v>158.614</v>
       </c>
       <c r="BM20" t="n" s="10">
-        <v>155.563</v>
+        <v>155.559</v>
       </c>
       <c r="BN20" t="n" s="10">
         <v>164.239</v>
       </c>
       <c r="BO20" t="n" s="10">
-        <v>167.264</v>
+        <v>167.269</v>
       </c>
       <c r="BP20" t="n" s="10">
-        <v>162.188</v>
+        <v>162.186</v>
       </c>
       <c r="BQ20" t="n" s="10">
-        <v>164.173</v>
+        <v>164.167</v>
       </c>
       <c r="BR20" t="n" s="10">
-        <v>169.087</v>
+        <v>169.09</v>
       </c>
       <c r="BS20" t="n" s="10">
-        <v>164.513</v>
+        <v>164.521</v>
       </c>
       <c r="BT20" t="n" s="10">
-        <v>165.152</v>
+        <v>165.146</v>
       </c>
       <c r="BU20" t="n" s="10">
-        <v>154.982</v>
+        <v>154.977</v>
       </c>
       <c r="BV20" t="n" s="10">
-        <v>143.609</v>
+        <v>143.613</v>
       </c>
       <c r="BW20" t="n" s="10">
-        <v>130.177</v>
+        <v>130.187</v>
       </c>
       <c r="BX20" t="n" s="10">
-        <v>131.022</v>
+        <v>131.011</v>
       </c>
       <c r="BY20" t="n" s="10">
-        <v>140.537</v>
+        <v>140.533</v>
       </c>
       <c r="BZ20" t="n" s="10">
-        <v>145.554</v>
+        <v>145.559</v>
       </c>
       <c r="CA20" t="n" s="10">
-        <v>147.615</v>
+        <v>147.627</v>
       </c>
       <c r="CB20" t="n" s="10">
-        <v>148.603</v>
+        <v>148.589</v>
       </c>
       <c r="CC20" t="n" s="10">
-        <v>153.193</v>
+        <v>153.189</v>
       </c>
       <c r="CD20" t="n" s="10">
-        <v>160.275</v>
+        <v>160.28</v>
       </c>
       <c r="CE20" t="n" s="10">
-        <v>166.5</v>
+        <v>166.511</v>
       </c>
       <c r="CF20" t="n" s="10">
-        <v>161.401</v>
+        <v>161.387</v>
       </c>
       <c r="CG20" t="n" s="10">
-        <v>168.834</v>
+        <v>168.832</v>
       </c>
       <c r="CH20" t="n" s="10">
-        <v>167.151</v>
+        <v>167.156</v>
       </c>
       <c r="CI20" t="n" s="10">
-        <v>165.979</v>
+        <v>165.989</v>
       </c>
       <c r="CJ20" t="n" s="10">
-        <v>155.295</v>
+        <v>155.284</v>
       </c>
       <c r="CK20" t="n" s="10">
-        <v>156.792</v>
+        <v>156.791</v>
       </c>
       <c r="CL20" t="n" s="10">
-        <v>155.802</v>
+        <v>155.805</v>
       </c>
       <c r="CM20" t="n" s="10">
-        <v>153.631</v>
+        <v>153.637</v>
       </c>
       <c r="CN20" t="n" s="10">
-        <v>164.874</v>
+        <v>164.866</v>
       </c>
       <c r="CO20" t="n" s="10">
-        <v>161.054</v>
+        <v>161.052</v>
       </c>
       <c r="CP20" t="n" s="10">
-        <v>160.603</v>
+        <v>160.606</v>
       </c>
       <c r="CQ20" t="n" s="10">
-        <v>166.999</v>
+        <v>167.004</v>
       </c>
       <c r="CR20" t="n" s="10">
-        <v>165.042</v>
+        <v>165.035</v>
       </c>
       <c r="CS20" t="n" s="10">
-        <v>168.563</v>
+        <v>168.56</v>
       </c>
       <c r="CT20" t="n" s="10">
-        <v>168.746</v>
+        <v>168.751</v>
       </c>
       <c r="CU20" t="n" s="10">
-        <v>171.222</v>
+        <v>171.225</v>
       </c>
       <c r="CV20" t="n" s="10">
-        <v>166.973</v>
+        <v>166.956</v>
       </c>
       <c r="CW20" t="n" s="10">
-        <v>175.45</v>
+        <v>175.442</v>
       </c>
       <c r="CX20" t="n" s="10">
-        <v>174.298</v>
+        <v>174.321</v>
       </c>
       <c r="CY20" t="n" s="10">
-        <v>177.443</v>
+        <v>177.449</v>
       </c>
       <c r="CZ20" t="n" s="10">
-        <v>187.954</v>
+        <v>187.912</v>
       </c>
       <c r="DA20" t="n" s="10">
-        <v>177.906</v>
+        <v>177.887</v>
       </c>
       <c r="DB20" t="n" s="10">
-        <v>177.149</v>
+        <v>177.206</v>
       </c>
       <c r="DC20" t="n" s="10">
-        <v>186.353</v>
+        <v>186.38</v>
       </c>
       <c r="DD20" t="n" s="10">
-        <v>183.579</v>
+        <v>183.463</v>
       </c>
       <c r="DE20" t="n" s="10">
-        <v>189.222</v>
+        <v>189.187</v>
       </c>
       <c r="DF20" t="n" s="10">
-        <v>188.771</v>
+        <v>188.893</v>
       </c>
       <c r="DG20" t="n" s="10">
-        <v>190.669</v>
+        <v>190.745</v>
       </c>
       <c r="DH20" t="n" s="10">
-        <v>195.551</v>
+        <v>195.286</v>
       </c>
       <c r="DI20" t="n" s="10">
-        <v>185.221</v>
+        <v>185.176</v>
       </c>
       <c r="DJ20" t="n" s="10">
-        <v>192.359</v>
+        <v>192.592</v>
       </c>
       <c r="DK20" t="n" s="10">
-        <v>192.848</v>
+        <v>192.993</v>
       </c>
       <c r="DL20" t="n" s="10">
-        <v>186.669</v>
+        <v>186.186</v>
       </c>
       <c r="DM20" t="n" s="10">
-        <v>187.869</v>
+        <v>187.819</v>
       </c>
       <c r="DN20" t="n" s="10">
-        <v>185.309</v>
+        <v>185.697</v>
       </c>
       <c r="DO20" t="n" s="10">
-        <v>181.567</v>
+        <v>181.787</v>
       </c>
       <c r="DP20" t="n" s="10">
-        <v>138.56</v>
+        <v>137.817</v>
       </c>
       <c r="DQ20" t="n" s="10">
-        <v>174.381</v>
+        <v>174.338</v>
       </c>
       <c r="DR20" t="n" s="10">
-        <v>181.621</v>
+        <v>182.187</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>185.663</v>
+        <v>185.427</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>192.63</v>
+        <v>192.24</v>
       </c>
       <c r="DU20" t="n" s="10">
-        <v>198.041</v>
-      </c>
-      <c r="DV20" t="s" s="10">
-        <v>43</v>
+        <v>195.818</v>
+      </c>
+      <c r="DV20" t="n" s="10">
+        <v>203.875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="13">
         <v>42</v>
       </c>
       <c r="C21" t="n" s="10">
-        <v>205.854</v>
+        <v>205.893</v>
       </c>
       <c r="D21" t="n" s="10">
-        <v>214.861</v>
+        <v>214.81</v>
       </c>
       <c r="E21" t="n" s="10">
-        <v>215.966</v>
+        <v>215.949</v>
       </c>
       <c r="F21" t="n" s="10">
-        <v>219.128</v>
+        <v>219.158</v>
       </c>
       <c r="G21" t="n" s="10">
-        <v>225.495</v>
+        <v>225.53</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>229.924</v>
+        <v>229.877</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>236.977</v>
+        <v>236.961</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>235.338</v>
+        <v>235.367</v>
       </c>
       <c r="K21" t="n" s="10">
-        <v>233.769</v>
+        <v>233.799</v>
       </c>
       <c r="L21" t="n" s="10">
-        <v>237.069</v>
+        <v>237.023</v>
       </c>
       <c r="M21" t="n" s="10">
-        <v>238.47</v>
+        <v>238.462</v>
       </c>
       <c r="N21" t="n" s="10">
-        <v>240.051</v>
+        <v>240.073</v>
       </c>
       <c r="O21" t="n" s="10">
-        <v>242.488</v>
+        <v>242.509</v>
       </c>
       <c r="P21" t="n" s="10">
-        <v>241.559</v>
+        <v>241.521</v>
       </c>
       <c r="Q21" t="n" s="10">
-        <v>243.667</v>
+        <v>243.669</v>
       </c>
       <c r="R21" t="n" s="10">
-        <v>246.88</v>
+        <v>246.896</v>
       </c>
       <c r="S21" t="n" s="10">
-        <v>248.927</v>
+        <v>248.938</v>
       </c>
       <c r="T21" t="n" s="10">
-        <v>251.588</v>
+        <v>251.561</v>
       </c>
       <c r="U21" t="n" s="10">
-        <v>253.561</v>
+        <v>253.566</v>
       </c>
       <c r="V21" t="n" s="10">
-        <v>255.355</v>
+        <v>255.365</v>
       </c>
       <c r="W21" t="n" s="10">
-        <v>254.036</v>
+        <v>254.04</v>
       </c>
       <c r="X21" t="n" s="10">
-        <v>253.38</v>
+        <v>253.367</v>
       </c>
       <c r="Y21" t="n" s="10">
-        <v>255.316</v>
+        <v>255.318</v>
       </c>
       <c r="Z21" t="n" s="10">
-        <v>255.87</v>
+        <v>255.877</v>
       </c>
       <c r="AA21" t="n" s="10">
-        <v>255.316</v>
+        <v>255.317</v>
       </c>
       <c r="AB21" t="n" s="10">
-        <v>254.942</v>
+        <v>254.936</v>
       </c>
       <c r="AC21" t="n" s="10">
-        <v>255.159</v>
+        <v>255.157</v>
       </c>
       <c r="AD21" t="n" s="10">
-        <v>257.009</v>
+        <v>257.016</v>
       </c>
       <c r="AE21" t="n" s="10">
-        <v>257.713</v>
+        <v>257.712</v>
       </c>
       <c r="AF21" t="n" s="10">
-        <v>260.234</v>
+        <v>260.233</v>
       </c>
       <c r="AG21" t="n" s="10">
-        <v>262.045</v>
+        <v>262.042</v>
       </c>
       <c r="AH21" t="n" s="10">
-        <v>264.36</v>
+        <v>264.366</v>
       </c>
       <c r="AI21" t="n" s="10">
-        <v>264.352</v>
+        <v>264.349</v>
       </c>
       <c r="AJ21" t="n" s="10">
         <v>268.271</v>
       </c>
       <c r="AK21" t="n" s="10">
-        <v>269.836</v>
+        <v>269.833</v>
       </c>
       <c r="AL21" t="n" s="10">
-        <v>271.911</v>
+        <v>271.916</v>
       </c>
       <c r="AM21" t="n" s="10">
-        <v>276.119</v>
+        <v>276.115</v>
       </c>
       <c r="AN21" t="n" s="10">
-        <v>278.341</v>
+        <v>278.342</v>
       </c>
       <c r="AO21" t="n" s="10">
-        <v>280.674</v>
+        <v>280.67</v>
       </c>
       <c r="AP21" t="n" s="10">
-        <v>282.279</v>
+        <v>282.285</v>
       </c>
       <c r="AQ21" t="n" s="10">
-        <v>282.595</v>
+        <v>282.591</v>
       </c>
       <c r="AR21" t="n" s="10">
-        <v>283.106</v>
+        <v>283.108</v>
       </c>
       <c r="AS21" t="n" s="10">
-        <v>283.364</v>
+        <v>283.359</v>
       </c>
       <c r="AT21" t="n" s="10">
-        <v>285.982</v>
+        <v>285.991</v>
       </c>
       <c r="AU21" t="n" s="10">
-        <v>284.594</v>
+        <v>284.589</v>
       </c>
       <c r="AV21" t="n" s="10">
-        <v>284.419</v>
+        <v>284.421</v>
       </c>
       <c r="AW21" t="n" s="10">
-        <v>286.307</v>
+        <v>286.303</v>
       </c>
       <c r="AX21" t="n" s="10">
-        <v>286.884</v>
+        <v>286.891</v>
       </c>
       <c r="AY21" t="n" s="10">
-        <v>286.008</v>
+        <v>286.005</v>
       </c>
       <c r="AZ21" t="n" s="10">
         <v>285.213</v>
       </c>
       <c r="BA21" t="n" s="10">
-        <v>287.557</v>
+        <v>287.555</v>
       </c>
       <c r="BB21" t="n" s="10">
-        <v>287.143</v>
+        <v>287.148</v>
       </c>
       <c r="BC21" t="n" s="10">
-        <v>287.901</v>
+        <v>287.898</v>
       </c>
       <c r="BD21" t="n" s="10">
-        <v>287.404</v>
+        <v>287.405</v>
       </c>
       <c r="BE21" t="n" s="10">
-        <v>287.433</v>
+        <v>287.432</v>
       </c>
       <c r="BF21" t="n" s="10">
-        <v>287.271</v>
+        <v>287.275</v>
       </c>
       <c r="BG21" t="n" s="10">
-        <v>287.371</v>
+        <v>287.369</v>
       </c>
       <c r="BH21" t="n" s="10">
-        <v>286.83</v>
+        <v>286.829</v>
       </c>
       <c r="BI21" t="n" s="10">
-        <v>286.954</v>
+        <v>286.956</v>
       </c>
       <c r="BJ21" t="n" s="10">
-        <v>287.803</v>
+        <v>287.804</v>
       </c>
       <c r="BK21" t="n" s="10">
-        <v>289.024</v>
+        <v>289.021</v>
       </c>
       <c r="BL21" t="n" s="10">
-        <v>290.999</v>
+        <v>290.998</v>
       </c>
       <c r="BM21" t="n" s="10">
-        <v>294.635</v>
+        <v>294.639</v>
       </c>
       <c r="BN21" t="n" s="10">
         <v>295.217</v>
       </c>
       <c r="BO21" t="n" s="10">
-        <v>297.831</v>
+        <v>297.826</v>
       </c>
       <c r="BP21" t="n" s="10">
-        <v>299.967</v>
+        <v>299.969</v>
       </c>
       <c r="BQ21" t="n" s="10">
-        <v>302.063</v>
+        <v>302.069</v>
       </c>
       <c r="BR21" t="n" s="10">
-        <v>304.577</v>
+        <v>304.574</v>
       </c>
       <c r="BS21" t="n" s="10">
-        <v>308.97</v>
+        <v>308.962</v>
       </c>
       <c r="BT21" t="n" s="10">
-        <v>311.766</v>
+        <v>311.772</v>
       </c>
       <c r="BU21" t="n" s="10">
+        <v>313.956</v>
+      </c>
+      <c r="BV21" t="n" s="10">
+        <v>316.529</v>
+      </c>
+      <c r="BW21" t="n" s="10">
         <v>313.951</v>
       </c>
-      <c r="BV21" t="n" s="10">
-        <v>316.533</v>
-      </c>
-      <c r="BW21" t="n" s="10">
-        <v>313.961</v>
-      </c>
       <c r="BX21" t="n" s="10">
-        <v>312.896</v>
+        <v>312.907</v>
       </c>
       <c r="BY21" t="n" s="10">
-        <v>314.978</v>
+        <v>314.982</v>
       </c>
       <c r="BZ21" t="n" s="10">
-        <v>316.195</v>
+        <v>316.19</v>
       </c>
       <c r="CA21" t="n" s="10">
-        <v>319.308</v>
+        <v>319.296</v>
       </c>
       <c r="CB21" t="n" s="10">
-        <v>321.977</v>
+        <v>321.991</v>
       </c>
       <c r="CC21" t="n" s="10">
-        <v>325.469</v>
+        <v>325.473</v>
       </c>
       <c r="CD21" t="n" s="10">
-        <v>328.654</v>
+        <v>328.649</v>
       </c>
       <c r="CE21" t="n" s="10">
-        <v>333.541</v>
+        <v>333.53</v>
       </c>
       <c r="CF21" t="n" s="10">
-        <v>337.303</v>
+        <v>337.317</v>
       </c>
       <c r="CG21" t="n" s="10">
-        <v>339.377</v>
+        <v>339.379</v>
       </c>
       <c r="CH21" t="n" s="10">
-        <v>341.973</v>
+        <v>341.968</v>
       </c>
       <c r="CI21" t="n" s="10">
-        <v>346.361</v>
+        <v>346.351</v>
       </c>
       <c r="CJ21" t="n" s="10">
-        <v>350.945</v>
+        <v>350.956</v>
       </c>
       <c r="CK21" t="n" s="10">
-        <v>352.988</v>
+        <v>352.989</v>
       </c>
       <c r="CL21" t="n" s="10">
-        <v>355.597</v>
+        <v>355.594</v>
       </c>
       <c r="CM21" t="n" s="10">
-        <v>356.772</v>
+        <v>356.766</v>
       </c>
       <c r="CN21" t="n" s="10">
-        <v>360.109</v>
+        <v>360.117</v>
       </c>
       <c r="CO21" t="n" s="10">
-        <v>363.428</v>
+        <v>363.43</v>
       </c>
       <c r="CP21" t="n" s="10">
-        <v>366.302</v>
+        <v>366.299</v>
       </c>
       <c r="CQ21" t="n" s="10">
-        <v>371.466</v>
+        <v>371.461</v>
       </c>
       <c r="CR21" t="n" s="10">
-        <v>374.31</v>
+        <v>374.317</v>
       </c>
       <c r="CS21" t="n" s="10">
-        <v>377.491</v>
+        <v>377.494</v>
       </c>
       <c r="CT21" t="n" s="10">
-        <v>380.683</v>
+        <v>380.678</v>
       </c>
       <c r="CU21" t="n" s="10">
-        <v>384.292</v>
+        <v>384.289</v>
       </c>
       <c r="CV21" t="n" s="10">
-        <v>389.999</v>
+        <v>390.016</v>
       </c>
       <c r="CW21" t="n" s="10">
-        <v>393.159</v>
+        <v>393.167</v>
       </c>
       <c r="CX21" t="n" s="10">
-        <v>397.363</v>
+        <v>397.34</v>
       </c>
       <c r="CY21" t="n" s="10">
-        <v>400.55</v>
+        <v>400.544</v>
       </c>
       <c r="CZ21" t="n" s="10">
-        <v>403.614</v>
+        <v>403.656</v>
       </c>
       <c r="DA21" t="n" s="10">
-        <v>407.775</v>
+        <v>407.794</v>
       </c>
       <c r="DB21" t="n" s="10">
-        <v>413.111</v>
+        <v>413.054</v>
       </c>
       <c r="DC21" t="n" s="10">
-        <v>417.307</v>
+        <v>417.28</v>
       </c>
       <c r="DD21" t="n" s="10">
-        <v>421.625</v>
+        <v>421.741</v>
       </c>
       <c r="DE21" t="n" s="10">
-        <v>425.683</v>
+        <v>425.718</v>
       </c>
       <c r="DF21" t="n" s="10">
-        <v>431.699</v>
+        <v>431.577</v>
       </c>
       <c r="DG21" t="n" s="10">
-        <v>435.952</v>
+        <v>435.876</v>
       </c>
       <c r="DH21" t="n" s="10">
-        <v>440.498</v>
+        <v>440.763</v>
       </c>
       <c r="DI21" t="n" s="10">
-        <v>446.495</v>
+        <v>446.54</v>
       </c>
       <c r="DJ21" t="n" s="10">
-        <v>450.711</v>
+        <v>450.478</v>
       </c>
       <c r="DK21" t="n" s="10">
-        <v>457.142</v>
+        <v>456.997</v>
       </c>
       <c r="DL21" t="n" s="10">
-        <v>461.951</v>
+        <v>462.434</v>
       </c>
       <c r="DM21" t="n" s="10">
-        <v>468.002</v>
+        <v>468.052</v>
       </c>
       <c r="DN21" t="n" s="10">
-        <v>468.432</v>
+        <v>468.044</v>
       </c>
       <c r="DO21" t="n" s="10">
-        <v>470.049</v>
+        <v>469.829</v>
       </c>
       <c r="DP21" t="n" s="10">
-        <v>447.28</v>
+        <v>448.023</v>
       </c>
       <c r="DQ21" t="n" s="10">
-        <v>464.238</v>
+        <v>464.281</v>
       </c>
       <c r="DR21" t="n" s="10">
-        <v>470.538</v>
+        <v>469.972</v>
       </c>
       <c r="DS21" t="n" s="10">
-        <v>467.948</v>
+        <v>467.963</v>
       </c>
       <c r="DT21" t="n" s="10">
-        <v>471.253</v>
+        <v>472.662</v>
       </c>
       <c r="DU21" t="n" s="10">
-        <v>484.365</v>
-      </c>
-      <c r="DV21" t="s" s="10">
-        <v>43</v>
+        <v>487.234</v>
+      </c>
+      <c r="DV21" t="n" s="10">
+        <v>492.554</v>
       </c>
     </row>
     <row r="22" ht="33.75" customHeight="true">
       <c r="A22" t="s" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -9094,66 +9091,66 @@
         <v>824.42</v>
       </c>
       <c r="DD23" t="n" s="10">
-        <v>827.177</v>
+        <v>827.178</v>
       </c>
       <c r="DE23" t="n" s="10">
         <v>842.403</v>
       </c>
       <c r="DF23" t="n" s="10">
-        <v>850.161</v>
+        <v>850.16</v>
       </c>
       <c r="DG23" t="n" s="10">
-        <v>855.728</v>
+        <v>855.725</v>
       </c>
       <c r="DH23" t="n" s="10">
-        <v>868.248</v>
+        <v>868.24</v>
       </c>
       <c r="DI23" t="n" s="10">
-        <v>870.275</v>
+        <v>870.276</v>
       </c>
       <c r="DJ23" t="n" s="10">
-        <v>880.346</v>
+        <v>880.386</v>
       </c>
       <c r="DK23" t="n" s="10">
-        <v>889.58</v>
+        <v>889.6</v>
       </c>
       <c r="DL23" t="n" s="10">
-        <v>892.749</v>
+        <v>892.382</v>
       </c>
       <c r="DM23" t="n" s="10">
-        <v>904.108</v>
+        <v>903.987</v>
       </c>
       <c r="DN23" t="n" s="10">
-        <v>897.59</v>
+        <v>898.233</v>
       </c>
       <c r="DO23" t="n" s="10">
-        <v>892.593</v>
+        <v>893.171</v>
       </c>
       <c r="DP23" t="n" s="10">
-        <v>816.516</v>
+        <v>815.147</v>
       </c>
       <c r="DQ23" t="n" s="10">
-        <v>872.146</v>
+        <v>871.073</v>
       </c>
       <c r="DR23" t="n" s="10">
-        <v>879.196</v>
+        <v>880.867</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>881.891</v>
+        <v>884.551</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>907.226</v>
+        <v>908.256</v>
       </c>
       <c r="DU23" t="n" s="10">
-        <v>937.777</v>
-      </c>
-      <c r="DV23" t="s" s="10">
-        <v>43</v>
+        <v>938.333</v>
+      </c>
+      <c r="DV23" t="n" s="10">
+        <v>947.838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s" s="13">
         <v>42</v>
@@ -9495,45 +9492,45 @@
         <v>155.456</v>
       </c>
       <c r="DK24" t="n" s="10">
-        <v>157.287</v>
+        <v>157.284</v>
       </c>
       <c r="DL24" t="n" s="10">
-        <v>158.834</v>
+        <v>158.828</v>
       </c>
       <c r="DM24" t="n" s="10">
-        <v>160.734</v>
+        <v>160.727</v>
       </c>
       <c r="DN24" t="n" s="10">
-        <v>162.353</v>
+        <v>162.371</v>
       </c>
       <c r="DO24" t="n" s="10">
-        <v>163.544</v>
+        <v>163.55</v>
       </c>
       <c r="DP24" t="n" s="10">
-        <v>164.387</v>
+        <v>164.286</v>
       </c>
       <c r="DQ24" t="n" s="10">
-        <v>164.839</v>
+        <v>164.824</v>
       </c>
       <c r="DR24" t="n" s="10">
-        <v>165.777</v>
+        <v>165.901</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>167.539</v>
+        <v>167.668</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>170.29</v>
+        <v>170.22</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>176.548</v>
-      </c>
-      <c r="DV24" t="s" s="10">
-        <v>43</v>
+        <v>176.712</v>
+      </c>
+      <c r="DV24" t="n" s="10">
+        <v>179.425</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s" s="13">
         <v>42</v>
@@ -9854,66 +9851,66 @@
         <v>681.394</v>
       </c>
       <c r="DD25" t="n" s="10">
-        <v>682.633</v>
+        <v>682.634</v>
       </c>
       <c r="DE25" t="n" s="10">
         <v>696.358</v>
       </c>
       <c r="DF25" t="n" s="10">
-        <v>702.352</v>
+        <v>702.351</v>
       </c>
       <c r="DG25" t="n" s="10">
-        <v>706.157</v>
+        <v>706.154</v>
       </c>
       <c r="DH25" t="n" s="10">
-        <v>716.835</v>
+        <v>716.827</v>
       </c>
       <c r="DI25" t="n" s="10">
-        <v>716.738</v>
+        <v>716.739</v>
       </c>
       <c r="DJ25" t="n" s="10">
-        <v>724.89</v>
+        <v>724.93</v>
       </c>
       <c r="DK25" t="n" s="10">
-        <v>732.293</v>
+        <v>732.316</v>
       </c>
       <c r="DL25" t="n" s="10">
-        <v>733.915</v>
+        <v>733.554</v>
       </c>
       <c r="DM25" t="n" s="10">
-        <v>743.374</v>
+        <v>743.26</v>
       </c>
       <c r="DN25" t="n" s="10">
-        <v>735.237</v>
+        <v>735.862</v>
       </c>
       <c r="DO25" t="n" s="10">
-        <v>729.049</v>
+        <v>729.621</v>
       </c>
       <c r="DP25" t="n" s="10">
-        <v>652.129</v>
+        <v>650.861</v>
       </c>
       <c r="DQ25" t="n" s="10">
-        <v>707.307</v>
+        <v>706.249</v>
       </c>
       <c r="DR25" t="n" s="10">
-        <v>713.419</v>
+        <v>714.966</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>714.352</v>
+        <v>716.883</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>736.936</v>
+        <v>738.036</v>
       </c>
       <c r="DU25" t="n" s="10">
-        <v>761.229</v>
-      </c>
-      <c r="DV25" t="s" s="10">
-        <v>43</v>
+        <v>761.621</v>
+      </c>
+      <c r="DV25" t="n" s="10">
+        <v>768.413</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s" s="13">
         <v>42</v>
@@ -10234,66 +10231,66 @@
         <v>79.561</v>
       </c>
       <c r="DD26" t="n" s="10">
-        <v>79.399</v>
+        <v>79.4</v>
       </c>
       <c r="DE26" t="n" s="10">
-        <v>79.654</v>
+        <v>79.653</v>
       </c>
       <c r="DF26" t="n" s="10">
-        <v>81.053</v>
+        <v>81.051</v>
       </c>
       <c r="DG26" t="n" s="10">
-        <v>81.388</v>
+        <v>81.384</v>
       </c>
       <c r="DH26" t="n" s="10">
-        <v>81.729</v>
+        <v>81.742</v>
       </c>
       <c r="DI26" t="n" s="10">
         <v>82.94</v>
       </c>
       <c r="DJ26" t="n" s="10">
-        <v>82.579</v>
+        <v>82.573</v>
       </c>
       <c r="DK26" t="n" s="10">
-        <v>84.742</v>
+        <v>84.691</v>
       </c>
       <c r="DL26" t="n" s="10">
-        <v>83.063</v>
+        <v>83.029</v>
       </c>
       <c r="DM26" t="n" s="10">
-        <v>85.932</v>
+        <v>85.838</v>
       </c>
       <c r="DN26" t="n" s="10">
-        <v>84.277</v>
+        <v>84.574</v>
       </c>
       <c r="DO26" t="n" s="10">
-        <v>80.668</v>
+        <v>80.781</v>
       </c>
       <c r="DP26" t="n" s="10">
-        <v>59.288</v>
+        <v>59.006</v>
       </c>
       <c r="DQ26" t="n" s="10">
-        <v>68.096</v>
+        <v>67.219</v>
       </c>
       <c r="DR26" t="n" s="10">
-        <v>65.984</v>
+        <v>67.231</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>63.552</v>
+        <v>65.34</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>69.096</v>
+        <v>70.157</v>
       </c>
       <c r="DU26" t="n" s="10">
-        <v>77.934</v>
-      </c>
-      <c r="DV26" t="s" s="10">
-        <v>43</v>
+        <v>77.637</v>
+      </c>
+      <c r="DV26" t="n" s="10">
+        <v>74.055</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s" s="13">
         <v>42</v>
@@ -10617,168 +10614,168 @@
         <v>603.234</v>
       </c>
       <c r="DE27" t="n" s="10">
-        <v>616.704</v>
+        <v>616.705</v>
       </c>
       <c r="DF27" t="n" s="10">
-        <v>621.299</v>
+        <v>621.3</v>
       </c>
       <c r="DG27" t="n" s="10">
-        <v>624.769</v>
+        <v>624.77</v>
       </c>
       <c r="DH27" t="n" s="10">
-        <v>635.106</v>
+        <v>635.085</v>
       </c>
       <c r="DI27" t="n" s="10">
-        <v>633.798</v>
+        <v>633.799</v>
       </c>
       <c r="DJ27" t="n" s="10">
-        <v>642.311</v>
+        <v>642.357</v>
       </c>
       <c r="DK27" t="n" s="10">
-        <v>647.551</v>
+        <v>647.625</v>
       </c>
       <c r="DL27" t="n" s="10">
-        <v>650.852</v>
+        <v>650.525</v>
       </c>
       <c r="DM27" t="n" s="10">
-        <v>657.442</v>
+        <v>657.422</v>
       </c>
       <c r="DN27" t="n" s="10">
-        <v>650.96</v>
+        <v>651.288</v>
       </c>
       <c r="DO27" t="n" s="10">
-        <v>648.381</v>
+        <v>648.84</v>
       </c>
       <c r="DP27" t="n" s="10">
-        <v>592.841</v>
+        <v>591.855</v>
       </c>
       <c r="DQ27" t="n" s="10">
-        <v>639.211</v>
+        <v>639.03</v>
       </c>
       <c r="DR27" t="n" s="10">
-        <v>647.435</v>
+        <v>647.735</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>650.8</v>
+        <v>651.543</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>667.84</v>
+        <v>667.879</v>
       </c>
       <c r="DU27" t="n" s="10">
-        <v>683.295</v>
-      </c>
-      <c r="DV27" t="s" s="10">
-        <v>43</v>
+        <v>683.984</v>
+      </c>
+      <c r="DV27" t="n" s="10">
+        <v>694.358</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s" s="13">
         <v>42</v>
       </c>
       <c r="C28" t="n" s="10">
-        <v>92.606</v>
+        <v>92.627</v>
       </c>
       <c r="D28" t="n" s="10">
-        <v>92.877</v>
+        <v>92.796</v>
       </c>
       <c r="E28" t="n" s="10">
-        <v>94.681</v>
+        <v>94.584</v>
       </c>
       <c r="F28" t="n" s="10">
-        <v>95.512</v>
+        <v>95.686</v>
       </c>
       <c r="G28" t="n" s="10">
-        <v>98.845</v>
+        <v>98.896</v>
       </c>
       <c r="H28" t="n" s="10">
-        <v>96.152</v>
+        <v>96.035</v>
       </c>
       <c r="I28" t="n" s="10">
-        <v>94.638</v>
+        <v>94.503</v>
       </c>
       <c r="J28" t="n" s="10">
-        <v>94.32</v>
+        <v>94.531</v>
       </c>
       <c r="K28" t="n" s="10">
-        <v>94.145</v>
+        <v>94.216</v>
       </c>
       <c r="L28" t="n" s="10">
-        <v>95.058</v>
+        <v>94.894</v>
       </c>
       <c r="M28" t="n" s="10">
-        <v>94.983</v>
+        <v>94.826</v>
       </c>
       <c r="N28" t="n" s="10">
-        <v>93.786</v>
+        <v>94.1</v>
       </c>
       <c r="O28" t="n" s="10">
-        <v>96.196</v>
+        <v>96.175</v>
       </c>
       <c r="P28" t="n" s="10">
-        <v>98.454</v>
+        <v>98.286</v>
       </c>
       <c r="Q28" t="n" s="10">
-        <v>101.396</v>
+        <v>101.216</v>
       </c>
       <c r="R28" t="n" s="10">
-        <v>102.585</v>
+        <v>103.067</v>
       </c>
       <c r="S28" t="n" s="10">
-        <v>104.664</v>
+        <v>104.507</v>
       </c>
       <c r="T28" t="n" s="10">
-        <v>103.481</v>
+        <v>103.314</v>
       </c>
       <c r="U28" t="n" s="10">
-        <v>103.215</v>
+        <v>103.042</v>
       </c>
       <c r="V28" t="n" s="10">
-        <v>101.786</v>
+        <v>102.283</v>
       </c>
       <c r="W28" t="n" s="10">
-        <v>105.52</v>
+        <v>105.348</v>
       </c>
       <c r="X28" t="n" s="10">
-        <v>105.285</v>
+        <v>105.155</v>
       </c>
       <c r="Y28" t="n" s="10">
-        <v>105.411</v>
+        <v>105.323</v>
       </c>
       <c r="Z28" t="n" s="10">
-        <v>107.537</v>
+        <v>107.806</v>
       </c>
       <c r="AA28" t="n" s="10">
-        <v>103.698</v>
+        <v>103.609</v>
       </c>
       <c r="AB28" t="n" s="10">
-        <v>112.613</v>
+        <v>112.559</v>
       </c>
       <c r="AC28" t="n" s="10">
-        <v>113.494</v>
+        <v>113.474</v>
       </c>
       <c r="AD28" t="n" s="10">
-        <v>113.728</v>
+        <v>113.798</v>
       </c>
       <c r="AE28" t="n" s="10">
-        <v>117.188</v>
+        <v>117.168</v>
       </c>
       <c r="AF28" t="n" s="10">
-        <v>110.809</v>
+        <v>110.799</v>
       </c>
       <c r="AG28" t="n" s="10">
-        <v>113.414</v>
+        <v>113.415</v>
       </c>
       <c r="AH28" t="n" s="10">
         <v>112.48</v>
       </c>
       <c r="AI28" t="n" s="10">
-        <v>109.308</v>
+        <v>109.309</v>
       </c>
       <c r="AJ28" t="n" s="10">
-        <v>111.77</v>
+        <v>111.771</v>
       </c>
       <c r="AK28" t="n" s="10">
         <v>110.871</v>
@@ -10982,183 +10979,183 @@
         <v>177.014</v>
       </c>
       <c r="CZ28" t="n" s="10">
-        <v>185.56</v>
+        <v>185.559</v>
       </c>
       <c r="DA28" t="n" s="10">
-        <v>178.613</v>
+        <v>178.612</v>
       </c>
       <c r="DB28" t="n" s="10">
         <v>179.917</v>
       </c>
       <c r="DC28" t="n" s="10">
-        <v>184.84</v>
+        <v>184.854</v>
       </c>
       <c r="DD28" t="n" s="10">
         <v>181.526</v>
       </c>
       <c r="DE28" t="n" s="10">
-        <v>190.847</v>
+        <v>190.82</v>
       </c>
       <c r="DF28" t="n" s="10">
-        <v>190.14</v>
+        <v>190.089</v>
       </c>
       <c r="DG28" t="n" s="10">
-        <v>189.143</v>
+        <v>189.329</v>
       </c>
       <c r="DH28" t="n" s="10">
-        <v>194.248</v>
+        <v>194.087</v>
       </c>
       <c r="DI28" t="n" s="10">
-        <v>187.863</v>
+        <v>187.776</v>
       </c>
       <c r="DJ28" t="n" s="10">
-        <v>191.843</v>
+        <v>191.946</v>
       </c>
       <c r="DK28" t="n" s="10">
-        <v>191.723</v>
+        <v>192.461</v>
       </c>
       <c r="DL28" t="n" s="10">
-        <v>186.532</v>
+        <v>185.031</v>
       </c>
       <c r="DM28" t="n" s="10">
-        <v>190.497</v>
+        <v>190.798</v>
       </c>
       <c r="DN28" t="n" s="10">
-        <v>183.458</v>
+        <v>184.324</v>
       </c>
       <c r="DO28" t="n" s="10">
-        <v>180.4</v>
+        <v>181.843</v>
       </c>
       <c r="DP28" t="n" s="10">
-        <v>140.709</v>
+        <v>136.701</v>
       </c>
       <c r="DQ28" t="n" s="10">
-        <v>176.004</v>
+        <v>177.164</v>
       </c>
       <c r="DR28" t="n" s="10">
-        <v>179.037</v>
+        <v>180.337</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>184.477</v>
+        <v>186.112</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>191.631</v>
+        <v>187.603</v>
       </c>
       <c r="DU28" t="n" s="10">
-        <v>200.138</v>
-      </c>
-      <c r="DV28" t="s" s="10">
-        <v>43</v>
+        <v>200.069</v>
+      </c>
+      <c r="DV28" t="n" s="10">
+        <v>203.456</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s" s="13">
         <v>42</v>
       </c>
       <c r="C29" t="n" s="10">
-        <v>207.629</v>
+        <v>207.608</v>
       </c>
       <c r="D29" t="n" s="10">
-        <v>214.096</v>
+        <v>214.177</v>
       </c>
       <c r="E29" t="n" s="10">
-        <v>214.413</v>
+        <v>214.51</v>
       </c>
       <c r="F29" t="n" s="10">
-        <v>219.538</v>
+        <v>219.364</v>
       </c>
       <c r="G29" t="n" s="10">
-        <v>226.056</v>
+        <v>226.005</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>229.392</v>
+        <v>229.509</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>235.394</v>
+        <v>235.529</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>236.467</v>
+        <v>236.256</v>
       </c>
       <c r="K29" t="n" s="10">
-        <v>233.742</v>
+        <v>233.671</v>
       </c>
       <c r="L29" t="n" s="10">
-        <v>237.299</v>
+        <v>237.463</v>
       </c>
       <c r="M29" t="n" s="10">
-        <v>237.759</v>
+        <v>237.916</v>
       </c>
       <c r="N29" t="n" s="10">
-        <v>240.221</v>
+        <v>239.907</v>
       </c>
       <c r="O29" t="n" s="10">
-        <v>241.847</v>
+        <v>241.868</v>
       </c>
       <c r="P29" t="n" s="10">
-        <v>241.894</v>
+        <v>242.062</v>
       </c>
       <c r="Q29" t="n" s="10">
-        <v>243.659</v>
+        <v>243.839</v>
       </c>
       <c r="R29" t="n" s="10">
-        <v>246.848</v>
+        <v>246.366</v>
       </c>
       <c r="S29" t="n" s="10">
-        <v>248.479</v>
+        <v>248.636</v>
       </c>
       <c r="T29" t="n" s="10">
-        <v>251.892</v>
+        <v>252.059</v>
       </c>
       <c r="U29" t="n" s="10">
-        <v>253.314</v>
+        <v>253.487</v>
       </c>
       <c r="V29" t="n" s="10">
-        <v>255.29</v>
+        <v>254.793</v>
       </c>
       <c r="W29" t="n" s="10">
-        <v>254.053</v>
+        <v>254.225</v>
       </c>
       <c r="X29" t="n" s="10">
-        <v>253.936</v>
+        <v>254.066</v>
       </c>
       <c r="Y29" t="n" s="10">
-        <v>255.067</v>
+        <v>255.155</v>
       </c>
       <c r="Z29" t="n" s="10">
-        <v>255.534</v>
+        <v>255.265</v>
       </c>
       <c r="AA29" t="n" s="10">
-        <v>255.476</v>
+        <v>255.565</v>
       </c>
       <c r="AB29" t="n" s="10">
-        <v>255.313</v>
+        <v>255.367</v>
       </c>
       <c r="AC29" t="n" s="10">
-        <v>255.224</v>
+        <v>255.244</v>
       </c>
       <c r="AD29" t="n" s="10">
-        <v>256.427</v>
+        <v>256.357</v>
       </c>
       <c r="AE29" t="n" s="10">
-        <v>258.175</v>
+        <v>258.195</v>
       </c>
       <c r="AF29" t="n" s="10">
-        <v>260.02</v>
+        <v>260.03</v>
       </c>
       <c r="AG29" t="n" s="10">
-        <v>262.039</v>
+        <v>262.038</v>
       </c>
       <c r="AH29" t="n" s="10">
         <v>264.108</v>
       </c>
       <c r="AI29" t="n" s="10">
-        <v>264.937</v>
+        <v>264.936</v>
       </c>
       <c r="AJ29" t="n" s="10">
-        <v>267.82</v>
+        <v>267.819</v>
       </c>
       <c r="AK29" t="n" s="10">
         <v>269.799</v>
@@ -11362,98 +11359,98 @@
         <v>400.379</v>
       </c>
       <c r="CZ29" t="n" s="10">
-        <v>403.556</v>
+        <v>403.557</v>
       </c>
       <c r="DA29" t="n" s="10">
-        <v>408.067</v>
+        <v>408.068</v>
       </c>
       <c r="DB29" t="n" s="10">
         <v>412.42</v>
       </c>
       <c r="DC29" t="n" s="10">
-        <v>416.993</v>
+        <v>416.979</v>
       </c>
       <c r="DD29" t="n" s="10">
         <v>421.708</v>
       </c>
       <c r="DE29" t="n" s="10">
-        <v>425.857</v>
+        <v>425.885</v>
       </c>
       <c r="DF29" t="n" s="10">
-        <v>431.159</v>
+        <v>431.211</v>
       </c>
       <c r="DG29" t="n" s="10">
-        <v>435.626</v>
+        <v>435.441</v>
       </c>
       <c r="DH29" t="n" s="10">
-        <v>440.858</v>
+        <v>440.998</v>
       </c>
       <c r="DI29" t="n" s="10">
-        <v>445.935</v>
+        <v>446.023</v>
       </c>
       <c r="DJ29" t="n" s="10">
-        <v>450.468</v>
+        <v>450.411</v>
       </c>
       <c r="DK29" t="n" s="10">
-        <v>455.828</v>
+        <v>455.164</v>
       </c>
       <c r="DL29" t="n" s="10">
-        <v>464.32</v>
+        <v>465.494</v>
       </c>
       <c r="DM29" t="n" s="10">
-        <v>466.945</v>
+        <v>466.624</v>
       </c>
       <c r="DN29" t="n" s="10">
-        <v>467.502</v>
+        <v>466.964</v>
       </c>
       <c r="DO29" t="n" s="10">
-        <v>467.981</v>
+        <v>466.997</v>
       </c>
       <c r="DP29" t="n" s="10">
-        <v>452.132</v>
+        <v>455.154</v>
       </c>
       <c r="DQ29" t="n" s="10">
-        <v>463.207</v>
+        <v>461.866</v>
       </c>
       <c r="DR29" t="n" s="10">
-        <v>468.398</v>
+        <v>467.398</v>
       </c>
       <c r="DS29" t="n" s="10">
-        <v>466.323</v>
+        <v>465.431</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>476.209</v>
+        <v>480.276</v>
       </c>
       <c r="DU29" t="n" s="10">
-        <v>483.157</v>
-      </c>
-      <c r="DV29" t="s" s="10">
-        <v>43</v>
+        <v>483.915</v>
+      </c>
+      <c r="DV29" t="n" s="10">
+        <v>490.902</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -11500,7 +11497,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:48:23&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:17:38&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>